--- a/docs/design/AI秒出测试方案与系统设计.xlsx
+++ b/docs/design/AI秒出测试方案与系统设计.xlsx
@@ -3000,7 +3000,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3162,6 +3162,7 @@
         <v>38</v>
       </c>
     </row>
+    <row r="32" ht="235" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
@@ -3181,14 +3182,15 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="25" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="77.8846153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:4">
@@ -3510,6 +3512,7 @@
         <v>516</v>
       </c>
     </row>
+    <row r="32" ht="91" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
@@ -3528,7 +3531,7 @@
   <sheetPr/>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3747,7 +3750,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4685,7 +4688,7 @@
   <sheetPr/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4799,8 +4802,8 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
